--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ncam1-Gfra1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ncam1-Gfra1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.7004376666666666</v>
+        <v>0.04741066666666666</v>
       </c>
       <c r="H2">
-        <v>2.101313</v>
+        <v>0.142232</v>
       </c>
       <c r="I2">
-        <v>0.04511966030063898</v>
+        <v>0.003188134523263584</v>
       </c>
       <c r="J2">
-        <v>0.04511966030063898</v>
+        <v>0.003188134523263585</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.06547366666666667</v>
+        <v>0.01036033333333333</v>
       </c>
       <c r="N2">
-        <v>0.196421</v>
+        <v>0.031081</v>
       </c>
       <c r="O2">
-        <v>0.002125877360986814</v>
+        <v>0.0003369947480386084</v>
       </c>
       <c r="P2">
-        <v>0.002125877360986814</v>
+        <v>0.0003369947480386084</v>
       </c>
       <c r="Q2">
-        <v>0.04586022230811111</v>
+        <v>0.0004911903102222222</v>
       </c>
       <c r="R2">
-        <v>0.412742000773</v>
+        <v>0.004420712792</v>
       </c>
       <c r="S2">
-        <v>9.591886436854393E-05</v>
+        <v>1.0743845903804E-06</v>
       </c>
       <c r="T2">
-        <v>9.591886436854392E-05</v>
+        <v>1.074384590380401E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.7004376666666666</v>
+        <v>0.04741066666666666</v>
       </c>
       <c r="H3">
-        <v>2.101313</v>
+        <v>0.142232</v>
       </c>
       <c r="I3">
-        <v>0.04511966030063898</v>
+        <v>0.003188134523263584</v>
       </c>
       <c r="J3">
-        <v>0.04511966030063898</v>
+        <v>0.003188134523263585</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>77.839292</v>
       </c>
       <c r="O3">
-        <v>0.8424597607080814</v>
+        <v>0.8439700329797517</v>
       </c>
       <c r="P3">
-        <v>0.8424597607080814</v>
+        <v>0.8439700329797518</v>
       </c>
       <c r="Q3">
-        <v>18.17385735448844</v>
+        <v>1.230137575527111</v>
       </c>
       <c r="R3">
-        <v>163.564716190396</v>
+        <v>11.071238179744</v>
       </c>
       <c r="S3">
-        <v>0.03801149822010624</v>
+        <v>0.002690689998742652</v>
       </c>
       <c r="T3">
-        <v>0.03801149822010623</v>
+        <v>0.002690689998742653</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.7004376666666666</v>
+        <v>0.04741066666666666</v>
       </c>
       <c r="H4">
-        <v>2.101313</v>
+        <v>0.142232</v>
       </c>
       <c r="I4">
-        <v>0.04511966030063898</v>
+        <v>0.003188134523263584</v>
       </c>
       <c r="J4">
-        <v>0.04511966030063898</v>
+        <v>0.003188134523263585</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>14.359551</v>
       </c>
       <c r="O4">
-        <v>0.1554143619309319</v>
+        <v>0.1556929722722096</v>
       </c>
       <c r="P4">
-        <v>0.1554143619309319</v>
+        <v>0.1556929722722096</v>
       </c>
       <c r="Q4">
-        <v>3.352656798940333</v>
+        <v>0.2269319619813333</v>
       </c>
       <c r="R4">
-        <v>30.173911190463</v>
+        <v>2.042387657832</v>
       </c>
       <c r="S4">
-        <v>0.007012243216164205</v>
+        <v>0.0004963701399305514</v>
       </c>
       <c r="T4">
-        <v>0.007012243216164204</v>
+        <v>0.0004963701399305516</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>0.711915</v>
       </c>
       <c r="I5">
-        <v>0.01528632952964618</v>
+        <v>0.01595759596384214</v>
       </c>
       <c r="J5">
-        <v>0.01528632952964618</v>
+        <v>0.01595759596384214</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.06547366666666667</v>
+        <v>0.01036033333333333</v>
       </c>
       <c r="N5">
-        <v>0.196421</v>
+        <v>0.031081</v>
       </c>
       <c r="O5">
-        <v>0.002125877360986814</v>
+        <v>0.0003369947480386084</v>
       </c>
       <c r="P5">
-        <v>0.002125877360986814</v>
+        <v>0.0003369947480386084</v>
       </c>
       <c r="Q5">
-        <v>0.01553722846833333</v>
+        <v>0.002458558901666667</v>
       </c>
       <c r="R5">
-        <v>0.139835056215</v>
+        <v>0.022127030115</v>
       </c>
       <c r="S5">
-        <v>3.249686187965903E-05</v>
+        <v>5.377626031136895E-06</v>
       </c>
       <c r="T5">
-        <v>3.249686187965903E-05</v>
+        <v>5.377626031136895E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>0.711915</v>
       </c>
       <c r="I6">
-        <v>0.01528632952964618</v>
+        <v>0.01595759596384214</v>
       </c>
       <c r="J6">
-        <v>0.01528632952964618</v>
+        <v>0.01595759596384214</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>77.839292</v>
       </c>
       <c r="O6">
-        <v>0.8424597607080814</v>
+        <v>0.8439700329797517</v>
       </c>
       <c r="P6">
-        <v>0.8424597607080814</v>
+        <v>0.8439700329797518</v>
       </c>
       <c r="Q6">
         <v>6.157217729353333</v>
@@ -818,10 +818,10 @@
         <v>55.41495956417999</v>
       </c>
       <c r="S6">
-        <v>0.0128781175176506</v>
+        <v>0.0134677327918814</v>
       </c>
       <c r="T6">
-        <v>0.0128781175176506</v>
+        <v>0.0134677327918814</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>0.711915</v>
       </c>
       <c r="I7">
-        <v>0.01528632952964618</v>
+        <v>0.01595759596384214</v>
       </c>
       <c r="J7">
-        <v>0.01528632952964618</v>
+        <v>0.01595759596384214</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>14.359551</v>
       </c>
       <c r="O7">
-        <v>0.1554143619309319</v>
+        <v>0.1556929722722096</v>
       </c>
       <c r="P7">
-        <v>0.1554143619309319</v>
+        <v>0.1556929722722096</v>
       </c>
       <c r="Q7">
         <v>1.135864416685</v>
@@ -880,10 +880,10 @@
         <v>10.222779750165</v>
       </c>
       <c r="S7">
-        <v>0.002375715150115923</v>
+        <v>0.002484485545929597</v>
       </c>
       <c r="T7">
-        <v>0.002375715150115923</v>
+        <v>0.002484485545929598</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,40 +912,40 @@
         <v>43.758776</v>
       </c>
       <c r="I8">
-        <v>0.9395940101697148</v>
+        <v>0.9808542695128942</v>
       </c>
       <c r="J8">
-        <v>0.9395940101697148</v>
+        <v>0.9808542695128943</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.06547366666666667</v>
+        <v>0.01036033333333333</v>
       </c>
       <c r="N8">
-        <v>0.196421</v>
+        <v>0.031081</v>
       </c>
       <c r="O8">
-        <v>0.002125877360986814</v>
+        <v>0.0003369947480386084</v>
       </c>
       <c r="P8">
-        <v>0.002125877360986814</v>
+        <v>0.0003369947480386084</v>
       </c>
       <c r="Q8">
-        <v>0.955015837855111</v>
+        <v>0.1511185018728889</v>
       </c>
       <c r="R8">
-        <v>8.595142540696001</v>
+        <v>1.360066516856</v>
       </c>
       <c r="S8">
-        <v>0.001997461634738611</v>
+        <v>0.0003305427374170911</v>
       </c>
       <c r="T8">
-        <v>0.001997461634738611</v>
+        <v>0.0003305427374170911</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>43.758776</v>
       </c>
       <c r="I9">
-        <v>0.9395940101697148</v>
+        <v>0.9808542695128942</v>
       </c>
       <c r="J9">
-        <v>0.9395940101697148</v>
+        <v>0.9808542695128943</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>77.839292</v>
       </c>
       <c r="O9">
-        <v>0.8424597607080814</v>
+        <v>0.8439700329797517</v>
       </c>
       <c r="P9">
-        <v>0.8424597607080814</v>
+        <v>0.8439700329797518</v>
       </c>
       <c r="Q9">
         <v>378.4613491807324</v>
@@ -1004,10 +1004,10 @@
         <v>3406.152142626592</v>
       </c>
       <c r="S9">
-        <v>0.7915701449703245</v>
+        <v>0.8278116101891276</v>
       </c>
       <c r="T9">
-        <v>0.7915701449703245</v>
+        <v>0.8278116101891279</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>43.758776</v>
       </c>
       <c r="I10">
-        <v>0.9395940101697148</v>
+        <v>0.9808542695128942</v>
       </c>
       <c r="J10">
-        <v>0.9395940101697148</v>
+        <v>0.9808542695128943</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>14.359551</v>
       </c>
       <c r="O10">
-        <v>0.1554143619309319</v>
+        <v>0.1556929722722096</v>
       </c>
       <c r="P10">
-        <v>0.1554143619309319</v>
+        <v>0.1556929722722096</v>
       </c>
       <c r="Q10">
         <v>69.81737507439733</v>
@@ -1066,10 +1066,10 @@
         <v>628.356375669576</v>
       </c>
       <c r="S10">
-        <v>0.1460264035646517</v>
+        <v>0.1527121165863495</v>
       </c>
       <c r="T10">
-        <v>0.1460264035646517</v>
+        <v>0.1527121165863495</v>
       </c>
     </row>
   </sheetData>
